--- a/Data/Rodents_catching_data.xlsx
+++ b/Data/Rodents_catching_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16f06612572c8e6b/Documents/GitHub/Namibia_project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB9031C0-2030-4706-B07B-FEFB07EC1D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{BB9031C0-2030-4706-B07B-FEFB07EC1D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11104814-1FE8-4A58-9035-8845F8E9AD02}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{181B5E23-3E4F-4106-9299-8C1243943CD4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="87">
   <si>
     <t>Sample ID</t>
   </si>
@@ -209,75 +209,6 @@
     <t>R56</t>
   </si>
   <si>
-    <t>R57</t>
-  </si>
-  <si>
-    <t>R58</t>
-  </si>
-  <si>
-    <t>R59</t>
-  </si>
-  <si>
-    <t>R60</t>
-  </si>
-  <si>
-    <t>R61</t>
-  </si>
-  <si>
-    <t>R62</t>
-  </si>
-  <si>
-    <t>R63</t>
-  </si>
-  <si>
-    <t>R64</t>
-  </si>
-  <si>
-    <t>R65</t>
-  </si>
-  <si>
-    <t>R66</t>
-  </si>
-  <si>
-    <t>R67</t>
-  </si>
-  <si>
-    <t>R68</t>
-  </si>
-  <si>
-    <t>R69</t>
-  </si>
-  <si>
-    <t>R70</t>
-  </si>
-  <si>
-    <t>R71</t>
-  </si>
-  <si>
-    <t>R72</t>
-  </si>
-  <si>
-    <t>R73</t>
-  </si>
-  <si>
-    <t>R74</t>
-  </si>
-  <si>
-    <t>R75</t>
-  </si>
-  <si>
-    <t>R76</t>
-  </si>
-  <si>
-    <t>R77</t>
-  </si>
-  <si>
-    <t>R78</t>
-  </si>
-  <si>
-    <t>R79</t>
-  </si>
-  <si>
     <t>Latitude</t>
   </si>
   <si>
@@ -360,6 +291,12 @@
   </si>
   <si>
     <t>23.03.2023</t>
+  </si>
+  <si>
+    <t>26.03.2023</t>
+  </si>
+  <si>
+    <t>25.03.2023</t>
   </si>
 </sst>
 </file>
@@ -724,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A84E11E3-459E-46DA-95D2-AC4A7DA608C0}">
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -744,28 +681,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -779,22 +716,22 @@
         <v>18.189302000000001</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="G2">
         <v>38.700000000000003</v>
       </c>
       <c r="H2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -808,22 +745,22 @@
         <v>18.189302000000001</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="G3">
         <v>43.5</v>
       </c>
       <c r="H3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -837,22 +774,22 @@
         <v>18.190221999999999</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="G4">
         <v>32.5</v>
       </c>
       <c r="H4" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -866,22 +803,22 @@
         <v>18.187052999999999</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="I5" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -895,22 +832,22 @@
         <v>18.187052999999999</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="G6">
         <v>43.5</v>
       </c>
       <c r="H6" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="I6" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -924,22 +861,22 @@
         <v>18.187052999999999</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="G7">
         <v>84.16</v>
       </c>
       <c r="H7" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="I7" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -953,22 +890,22 @@
         <v>18.187052999999999</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="G8">
         <v>45.5</v>
       </c>
       <c r="H8" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -982,182 +919,302 @@
         <v>18.187052999999999</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="G9">
         <v>46.8</v>
       </c>
       <c r="H9" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
+      <c r="B10">
+        <v>-22.614830000000001</v>
+      </c>
+      <c r="C10">
+        <v>18.192715</v>
+      </c>
       <c r="I10" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
+      <c r="B11">
+        <v>-22.615088</v>
+      </c>
+      <c r="C11">
+        <v>18.192674</v>
+      </c>
       <c r="I11" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
+      <c r="B12">
+        <v>-22.615088</v>
+      </c>
+      <c r="C12">
+        <v>18.192674</v>
+      </c>
       <c r="I12" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
+      <c r="B13">
+        <v>-22.615088</v>
+      </c>
+      <c r="C13">
+        <v>18.192674</v>
+      </c>
       <c r="I13" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
+      <c r="B14">
+        <v>-22.615088</v>
+      </c>
+      <c r="C14">
+        <v>18.192674</v>
+      </c>
       <c r="I14" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
+      <c r="B15">
+        <v>-22.613507999999999</v>
+      </c>
+      <c r="C15">
+        <v>18.192468999999999</v>
+      </c>
       <c r="I15" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
+      <c r="B16">
+        <v>-22.613507999999999</v>
+      </c>
+      <c r="C16">
+        <v>18.192468999999999</v>
+      </c>
       <c r="I16" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
+      <c r="B17">
+        <v>-22.613507999999999</v>
+      </c>
+      <c r="C17">
+        <v>18.192468999999999</v>
+      </c>
       <c r="I17" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
+      <c r="B18">
+        <v>-22.613507999999999</v>
+      </c>
+      <c r="C18">
+        <v>18.192468999999999</v>
+      </c>
       <c r="I18" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
+      <c r="B19">
+        <v>-22.615736999999999</v>
+      </c>
+      <c r="C19">
+        <v>18.192335</v>
+      </c>
       <c r="I19" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
+      <c r="B20">
+        <v>-22.615736999999999</v>
+      </c>
+      <c r="C20">
+        <v>18.192335</v>
+      </c>
       <c r="I20" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
+      <c r="B21">
+        <v>-22.613410999999999</v>
+      </c>
+      <c r="C21">
+        <v>18.193518999999998</v>
+      </c>
       <c r="I21" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
+      <c r="B22">
+        <v>-22.613410999999999</v>
+      </c>
+      <c r="C22">
+        <v>18.193518999999998</v>
+      </c>
       <c r="I22" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
+      <c r="B23">
+        <v>-22.613410999999999</v>
+      </c>
+      <c r="C23">
+        <v>18.193518999999998</v>
+      </c>
       <c r="I23" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
+      <c r="B24">
+        <v>-22.613410999999999</v>
+      </c>
+      <c r="C24">
+        <v>18.193518999999998</v>
+      </c>
       <c r="I24" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
+      <c r="B25">
+        <v>-22.613410999999999</v>
+      </c>
+      <c r="C25">
+        <v>18.193518999999998</v>
+      </c>
       <c r="I25" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
+      <c r="B26">
+        <v>-22.613410999999999</v>
+      </c>
+      <c r="C26">
+        <v>18.193518999999998</v>
+      </c>
       <c r="I26" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
+      <c r="B27">
+        <v>-22.613410999999999</v>
+      </c>
+      <c r="C27">
+        <v>18.193518999999998</v>
+      </c>
       <c r="I27" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
+      <c r="B28">
+        <v>-22.683319000000001</v>
+      </c>
+      <c r="C28">
+        <v>18.160800999999999</v>
+      </c>
       <c r="I28" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
+      <c r="B29">
+        <v>-22.683319000000001</v>
+      </c>
+      <c r="C29">
+        <v>18.160800999999999</v>
+      </c>
       <c r="I29" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -1171,42 +1228,66 @@
         <v>18.16094</v>
       </c>
       <c r="H30" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="I30" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
+      <c r="B31">
+        <v>-22.683562999999999</v>
+      </c>
+      <c r="C31">
+        <v>18.16095</v>
+      </c>
       <c r="I31" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
+      <c r="B32">
+        <v>-22.683562999999999</v>
+      </c>
+      <c r="C32">
+        <v>18.16095</v>
+      </c>
       <c r="I32" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
+      <c r="B33">
+        <v>-22.683741999999999</v>
+      </c>
+      <c r="C33">
+        <v>18.160822</v>
+      </c>
       <c r="I33" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
+      <c r="B34">
+        <v>-22.683741999999999</v>
+      </c>
+      <c r="C34">
+        <v>18.160822</v>
+      </c>
       <c r="I34" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -1214,31 +1295,49 @@
         <v>34</v>
       </c>
       <c r="I35" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>35</v>
       </c>
+      <c r="B36">
+        <v>-22.683966000000002</v>
+      </c>
+      <c r="C36">
+        <v>18.160235</v>
+      </c>
       <c r="I36" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
+      <c r="B37">
+        <v>-22.683966000000002</v>
+      </c>
+      <c r="C37">
+        <v>18.160235</v>
+      </c>
       <c r="I37" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
+      <c r="B38">
+        <v>-22.683966000000002</v>
+      </c>
+      <c r="C38">
+        <v>18.160235</v>
+      </c>
       <c r="I38" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -1252,10 +1351,10 @@
         <v>18.161339000000002</v>
       </c>
       <c r="H39" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="I39" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -1269,10 +1368,10 @@
         <v>18.161339000000002</v>
       </c>
       <c r="H40" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="I40" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -1286,10 +1385,10 @@
         <v>18.161339000000002</v>
       </c>
       <c r="H41" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="I41" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -1303,10 +1402,10 @@
         <v>18.161339000000002</v>
       </c>
       <c r="H42" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="I42" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -1320,10 +1419,10 @@
         <v>18.161339000000002</v>
       </c>
       <c r="H43" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="I43" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -1337,10 +1436,10 @@
         <v>18.161339000000002</v>
       </c>
       <c r="H44" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="I44" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -1354,185 +1453,178 @@
         <v>18.161339000000002</v>
       </c>
       <c r="H45" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="I45" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>45</v>
       </c>
+      <c r="B46">
+        <v>-22.586753000000002</v>
+      </c>
+      <c r="C46">
+        <v>18.184711</v>
+      </c>
+      <c r="I46" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>46</v>
       </c>
+      <c r="B47">
+        <v>-22.583613</v>
+      </c>
+      <c r="C47">
+        <v>18.186368999999999</v>
+      </c>
+      <c r="I47" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <v>-22.583613</v>
+      </c>
+      <c r="C48">
+        <v>18.186368999999999</v>
+      </c>
+      <c r="I48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B49">
+        <v>-22.582934999999999</v>
+      </c>
+      <c r="C49">
+        <v>18.186706000000001</v>
+      </c>
+      <c r="I49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B50">
+        <v>-22.579135999999998</v>
+      </c>
+      <c r="C50">
+        <v>18.194229</v>
+      </c>
+      <c r="I50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B51">
+        <v>-22.579395000000002</v>
+      </c>
+      <c r="C51">
+        <v>18.192067000000002</v>
+      </c>
+      <c r="I51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B52">
+        <v>-22.579473</v>
+      </c>
+      <c r="C52">
+        <v>18.191019000000001</v>
+      </c>
+      <c r="I52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B53">
+        <v>-22.579473</v>
+      </c>
+      <c r="C53">
+        <v>18.191019000000001</v>
+      </c>
+      <c r="I53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B54">
+        <v>-22.579015999999999</v>
+      </c>
+      <c r="C54">
+        <v>18.190398999999999</v>
+      </c>
+      <c r="I54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B55">
+        <v>-22.577597000000001</v>
+      </c>
+      <c r="C55">
+        <v>18.191299000000001</v>
+      </c>
+      <c r="I55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B56">
+        <v>-22.577245999999999</v>
+      </c>
+      <c r="C56">
+        <v>18.191355999999999</v>
+      </c>
+      <c r="I56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>79</v>
+      <c r="B57">
+        <v>-22.575707999999999</v>
+      </c>
+      <c r="C57">
+        <v>18.191939999999999</v>
+      </c>
+      <c r="I57" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
